--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c203_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c203_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1433,10 +1445,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1480,28 +1492,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1526,28 +1538,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1606,10 +1618,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1653,28 +1665,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1699,28 +1711,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1779,10 +1791,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1826,28 +1838,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1872,28 +1884,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1952,10 +1964,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1999,28 +2011,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2045,28 +2057,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2125,10 +2137,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2172,28 +2184,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2218,28 +2230,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2298,10 +2310,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2345,28 +2357,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2391,28 +2403,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2471,10 +2483,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2518,28 +2530,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2564,28 +2576,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2644,10 +2656,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2691,28 +2703,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2737,28 +2749,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2817,10 +2829,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2864,28 +2876,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2910,28 +2922,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2990,10 +3002,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3037,28 +3049,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3083,28 +3095,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3163,10 +3175,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3210,28 +3222,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3256,28 +3268,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3336,10 +3348,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3383,28 +3395,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3429,28 +3441,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3509,10 +3521,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3556,28 +3568,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3602,28 +3614,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3682,10 +3694,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3729,28 +3741,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3775,28 +3787,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3855,10 +3867,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3902,28 +3914,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3948,28 +3960,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4028,10 +4040,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4075,28 +4087,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4121,28 +4133,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4201,10 +4213,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4248,28 +4260,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4294,28 +4306,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4374,10 +4386,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4421,28 +4433,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4467,28 +4479,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4547,10 +4559,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4594,28 +4606,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4640,28 +4652,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4720,10 +4732,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4767,28 +4779,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4813,28 +4825,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4893,10 +4905,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4940,28 +4952,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4986,28 +4998,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5066,10 +5078,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5113,28 +5125,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5159,28 +5171,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5239,10 +5251,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5286,28 +5298,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5332,28 +5344,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5412,10 +5424,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5459,28 +5471,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5505,28 +5517,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5585,10 +5597,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5632,28 +5644,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5678,28 +5690,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5758,10 +5770,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5805,28 +5817,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5851,28 +5863,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5931,10 +5943,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5978,28 +5990,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6024,28 +6036,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6104,10 +6116,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6151,28 +6163,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6197,28 +6209,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6277,10 +6289,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6324,28 +6336,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6370,28 +6382,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6450,10 +6462,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6497,28 +6509,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6543,28 +6555,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7145,10 +7157,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7192,28 +7204,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7238,28 +7250,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7318,10 +7330,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7365,28 +7377,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7411,28 +7423,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7491,10 +7503,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7538,28 +7550,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7584,28 +7596,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7664,10 +7676,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7711,28 +7723,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7757,28 +7769,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7837,10 +7849,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7884,28 +7896,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7930,28 +7942,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8010,10 +8022,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8057,28 +8069,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8103,28 +8115,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8183,10 +8195,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8230,28 +8242,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8276,28 +8288,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8356,10 +8368,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8403,28 +8415,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8449,28 +8461,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8529,10 +8541,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8576,28 +8588,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="2">
+      <c r="A293" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="2">
+      <c r="C293" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8622,28 +8634,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="2">
+      <c r="C295" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="2">
+      <c r="D295" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="2">
+      <c r="I295" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8702,10 +8714,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8749,28 +8761,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8795,28 +8807,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8904,10 +8916,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8951,28 +8963,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8997,28 +9009,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9077,10 +9089,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9124,28 +9136,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9170,28 +9182,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9250,10 +9262,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9297,28 +9309,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
+      <c r="A318" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="2">
+      <c r="C318" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9343,28 +9355,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="C320" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="2">
+      <c r="D320" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="2">
+      <c r="I320" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9423,10 +9435,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="2" t="s">
+      <c r="J322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9470,28 +9482,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="2">
+      <c r="A324" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="2">
+      <c r="C324" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9516,28 +9528,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="2">
+      <c r="C326" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="2">
+      <c r="D326" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="2">
+      <c r="I326" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9596,10 +9608,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="2" t="s">
+      <c r="J328" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9643,28 +9655,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="2">
+      <c r="A330" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="2">
+      <c r="C330" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9689,28 +9701,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="2">
+      <c r="C332" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="2">
+      <c r="D332" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="2">
+      <c r="I332" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9798,10 +9810,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9845,28 +9857,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9891,28 +9903,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9971,10 +9983,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="2" t="s">
+      <c r="J341" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
